--- a/INTLINE/data/534/MOSPI/KAPSARC/Mortality_historical.xlsx
+++ b/INTLINE/data/534/MOSPI/KAPSARC/Mortality_historical.xlsx
@@ -1,37 +1,228 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mortality" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Mortality" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Birth Rate, Rural</t>
+  </si>
+  <si>
+    <t>Birth Rate, Urban</t>
+  </si>
+  <si>
+    <t>Birth Rate, Total</t>
+  </si>
+  <si>
+    <t>Death Rate, Rural</t>
+  </si>
+  <si>
+    <t>Death Rate, Urban</t>
+  </si>
+  <si>
+    <t>Death Rate, Total</t>
+  </si>
+  <si>
+    <t>Infant Mortality Rate(IMR), Rural</t>
+  </si>
+  <si>
+    <t>Infant Mortality Rate(IMR), Urban</t>
+  </si>
+  <si>
+    <t>Infant Mortality Rate(IMR), Total</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +237,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +256,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,1284 +553,1090 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AZ10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>1970</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1971</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>1972</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>1973</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>1974</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>1975</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>1976</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>1977</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>1978</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>1980</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>1981</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>1982</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>1983</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>1984</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>1985</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>1986</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>1987</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>1988</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>1989</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>1990</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>1991</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>1992</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>1993</v>
-      </c>
-      <c r="Z1" s="1" t="n">
-        <v>1994</v>
-      </c>
-      <c r="AA1" s="1" t="n">
-        <v>1995</v>
-      </c>
-      <c r="AB1" s="1" t="n">
-        <v>1996</v>
-      </c>
-      <c r="AC1" s="1" t="n">
-        <v>1997</v>
-      </c>
-      <c r="AD1" s="1" t="n">
-        <v>1998</v>
-      </c>
-      <c r="AE1" s="1" t="n">
-        <v>1999</v>
-      </c>
-      <c r="AF1" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="AG1" s="1" t="n">
-        <v>2001</v>
-      </c>
-      <c r="AH1" s="1" t="n">
-        <v>2002</v>
-      </c>
-      <c r="AI1" s="1" t="n">
-        <v>2003</v>
-      </c>
-      <c r="AJ1" s="1" t="n">
-        <v>2004</v>
-      </c>
-      <c r="AK1" s="1" t="n">
-        <v>2005</v>
-      </c>
-      <c r="AL1" s="1" t="n">
-        <v>2006</v>
-      </c>
-      <c r="AM1" s="1" t="n">
-        <v>2007</v>
-      </c>
-      <c r="AN1" s="1" t="n">
-        <v>2008</v>
-      </c>
-      <c r="AO1" s="1" t="n">
-        <v>2009</v>
-      </c>
-      <c r="AP1" s="1" t="n">
-        <v>2010</v>
-      </c>
-      <c r="AQ1" s="1" t="n">
-        <v>2011</v>
-      </c>
-      <c r="AR1" s="1" t="n">
-        <v>2012</v>
-      </c>
-      <c r="AS1" s="1" t="n">
-        <v>2013</v>
-      </c>
-      <c r="AT1" s="1" t="n">
-        <v>2014</v>
-      </c>
-      <c r="AU1" s="1" t="n">
-        <v>2015</v>
-      </c>
-      <c r="AV1" s="1" t="n">
-        <v>2016</v>
-      </c>
-      <c r="AW1" s="1" t="n">
-        <v>2017</v>
-      </c>
-      <c r="AX1" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="AY1" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="AZ1" s="1" t="n">
-        <v>2020</v>
+    <row r="1" spans="1:52">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Birth Rate, Rural</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:52">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
         <v>38.9</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>38.9</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>34.6</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>35.6</v>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>31.7</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>30.9</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>30.9</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>30.4</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>30.5</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>30</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>29.3</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>28.9</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>28</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>28.9</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>27.6</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>27.1</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>26.6</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>26.4</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>25.9</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>25.6</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>25.2</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>24.7</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>24.4</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>24.1</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>23.7</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>23.3</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>23.1</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>22.9</v>
       </c>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>22.4</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>22.1</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>21.8</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>21.6</v>
       </c>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Birth Rate, Urban</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:52">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
         <v>29.7</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>30.1</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>28.1</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>27</v>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>24.7</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>24.3</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>23.1</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>23.7</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>23.1</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>22.7</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>21.6</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>21.5</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>21.1</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>21.5</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>20.7</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>20.3</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>20</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>19.8</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>19</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>19.1</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>18.8</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>18.6</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3">
         <v>18.5</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3">
         <v>18.3</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3">
         <v>18</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3">
         <v>17.6</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3">
         <v>17.4</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
         <v>17.3</v>
       </c>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="n">
+      <c r="AU3">
         <v>17.3</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3">
         <v>17</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3">
         <v>16.8</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX3">
         <v>16.7</v>
       </c>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Birth Rate, Total</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:52">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
         <v>36.8</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>36.9</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>33.3</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>33.9</v>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>30.2</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>29.5</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>29.2</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>28.7</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>28.7</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>28.3</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>27.5</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>27.2</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>26.5</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>27.2</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>25.8</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>25.4</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>25</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>24.8</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>24.1</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>23.8</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>23.5</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>23.1</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4">
         <v>22.8</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4">
         <v>22.5</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4">
         <v>22.1</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4">
         <v>21.8</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4">
         <v>21.6</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4">
         <v>21.4</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4">
         <v>21</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4">
         <v>20.8</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4">
         <v>20.4</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4">
         <v>20.2</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX4">
         <v>20</v>
       </c>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Death Rate, Rural</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:52">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
         <v>17.3</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>16.4</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>13.5</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>13.7</v>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>10.5</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>10.6</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>10.9</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>10.6</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>10.1</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>9.800000000000001</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>9.699999999999999</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>9.6</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>9.699999999999999</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>9.6</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>9.300000000000001</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5">
         <v>9.1</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5">
         <v>8.699999999999999</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5">
         <v>8.699999999999999</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5">
         <v>8.199999999999999</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5">
         <v>8.1</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5">
         <v>8.1</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5">
         <v>8</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5">
         <v>8</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5">
         <v>7.8</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5">
         <v>7.7</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5">
         <v>7.6</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5">
         <v>7.6</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5">
         <v>7.5</v>
       </c>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="n">
+      <c r="AU5">
         <v>7.1</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5">
         <v>6.9</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5">
         <v>6.8</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AX5">
         <v>6.7</v>
       </c>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Death Rate, Urban</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:52">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
         <v>10.2</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>9.699999999999999</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>8</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>7.8</v>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>6.8</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>7.1</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>7</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>5.8</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>6.7</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>6.6</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>6.5</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>6.5</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>6.6</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6">
         <v>6.5</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6">
         <v>6.3</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6">
         <v>6.3</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6">
         <v>6.1</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6">
         <v>6</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6">
         <v>5.8</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6">
         <v>6</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6">
         <v>6</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6">
         <v>6</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6">
         <v>5.9</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6">
         <v>5.8</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6">
         <v>5.8</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6">
         <v>5.7</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6">
         <v>5.6</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6">
         <v>5.6</v>
       </c>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="n">
+      <c r="AU6">
         <v>5.4</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6">
         <v>5.4</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6">
         <v>5.3</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX6">
         <v>5.1</v>
       </c>
-      <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Death Rate, Total</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:52">
+      <c r="A7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
         <v>15.7</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>14.9</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>12.4</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>12.5</v>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>9.699999999999999</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>9.800000000000001</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>10.1</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>9.300000000000001</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>9.300000000000001</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>9</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>9</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>8.9</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>9</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7">
         <v>8.9</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7">
         <v>8.5</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7">
         <v>8.4</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7">
         <v>8.1</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7">
         <v>8</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7">
         <v>7.5</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7">
         <v>7.6</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7">
         <v>7.5</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7">
         <v>7.4</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7">
         <v>7.4</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7">
         <v>7.3</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7">
         <v>7.2</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7">
         <v>7.1</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7">
         <v>7</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7">
         <v>7</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7">
         <v>6.7</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7">
         <v>6.5</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7">
         <v>6.4</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7">
         <v>6.3</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX7">
         <v>6.2</v>
       </c>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Infant Mortality Rate(IMR), Rural</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
+    <row r="8" spans="1:52">
+      <c r="A8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8">
         <v>138</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>124</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>119</v>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>107</v>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>86</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>87</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>85</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>82</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>80</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8">
         <v>80</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>77</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8">
         <v>77</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>77</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8">
         <v>75</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8">
         <v>74</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8">
         <v>72</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8">
         <v>69</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8">
         <v>66</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8">
         <v>64</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8">
         <v>64</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8">
         <v>62</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8">
         <v>61</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8">
         <v>58</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8">
         <v>55</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8">
         <v>51</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8">
         <v>48</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR8">
         <v>46</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS8">
         <v>44</v>
       </c>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="n">
+      <c r="AU8">
         <v>41</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV8">
         <v>38</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW8">
         <v>37</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX8">
         <v>36</v>
       </c>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Infant Mortality Rate(IMR), Urban</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="n">
+    <row r="9" spans="1:52">
+      <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9">
         <v>82</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>65</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>62</v>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>59</v>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>50</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>53</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9">
         <v>53</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9">
         <v>45</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9">
         <v>52</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9">
         <v>48</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9">
         <v>46</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9">
         <v>45</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9">
         <v>45</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9">
         <v>44</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9">
         <v>44</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9">
         <v>42</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9">
         <v>40</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9">
         <v>38</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9">
         <v>40</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK9">
         <v>40</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL9">
         <v>39</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM9">
         <v>37</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN9">
         <v>36</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO9">
         <v>34</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP9">
         <v>31</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ9">
         <v>29</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AR9">
         <v>28</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AS9">
         <v>27</v>
       </c>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="n">
+      <c r="AU9">
         <v>25</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AV9">
         <v>23</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AW9">
         <v>23</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AX9">
         <v>23</v>
       </c>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Infant Mortality Rate(IMR), Total</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
+    <row r="10" spans="1:52">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10">
         <v>129</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>114</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>110</v>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>97</v>
       </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>80</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10">
         <v>80</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10">
         <v>79</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10">
         <v>74</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10">
         <v>74</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA10">
         <v>74</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10">
         <v>72</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC10">
         <v>71</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD10">
         <v>72</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE10">
         <v>70</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF10">
         <v>68</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG10">
         <v>66</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH10">
         <v>63</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI10">
         <v>60</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ10">
         <v>58</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK10">
         <v>58</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL10">
         <v>57</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM10">
         <v>55</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AN10">
         <v>53</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO10">
         <v>50</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AP10">
         <v>47</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AQ10">
         <v>44</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AR10">
         <v>42</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AS10">
         <v>40</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AT10">
         <v>39</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AU10">
         <v>37</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AV10">
         <v>34</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AW10">
         <v>33</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AX10">
         <v>32</v>
       </c>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>